--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Icam5-Itgal.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Icam5-Itgal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
   </si>
   <si>
     <t>Itgal</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -440,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,61 +519,371 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.01754749397489</v>
+        <v>2.064164333333333</v>
       </c>
       <c r="H2">
-        <v>1.01754749397489</v>
+        <v>6.192493</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6667582237734649</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.6667582237734649</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M2">
+        <v>21.087087</v>
+      </c>
+      <c r="N2">
+        <v>63.261261</v>
+      </c>
+      <c r="O2">
+        <v>0.9808818221599021</v>
+      </c>
+      <c r="P2">
+        <v>0.9808818221599021</v>
+      </c>
+      <c r="Q2">
+        <v>43.527212879297</v>
+      </c>
+      <c r="R2">
+        <v>391.744915913673</v>
+      </c>
+      <c r="S2">
+        <v>0.654011021475016</v>
+      </c>
+      <c r="T2">
+        <v>0.654011021475016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3">
+        <v>2.064164333333333</v>
+      </c>
+      <c r="H3">
+        <v>6.192493</v>
+      </c>
+      <c r="I3">
+        <v>0.6667582237734649</v>
+      </c>
+      <c r="J3">
+        <v>0.6667582237734649</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
         <v>1</v>
       </c>
-      <c r="M2">
-        <v>0.302760669339094</v>
-      </c>
-      <c r="N2">
-        <v>0.302760669339094</v>
-      </c>
-      <c r="O2">
+      <c r="M3">
+        <v>0.3230143333333333</v>
+      </c>
+      <c r="N3">
+        <v>0.9690430000000001</v>
+      </c>
+      <c r="O3">
+        <v>0.01502525635066456</v>
+      </c>
+      <c r="P3">
+        <v>0.01502525635066456</v>
+      </c>
+      <c r="Q3">
+        <v>0.6667546660221111</v>
+      </c>
+      <c r="R3">
+        <v>6.000791994199</v>
+      </c>
+      <c r="S3">
+        <v>0.01001821323611007</v>
+      </c>
+      <c r="T3">
+        <v>0.01001821323611007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>2.064164333333333</v>
+      </c>
+      <c r="H4">
+        <v>6.192493</v>
+      </c>
+      <c r="I4">
+        <v>0.6667582237734649</v>
+      </c>
+      <c r="J4">
+        <v>0.6667582237734649</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.08799</v>
+      </c>
+      <c r="N4">
+        <v>0.26397</v>
+      </c>
+      <c r="O4">
+        <v>0.00409292148943331</v>
+      </c>
+      <c r="P4">
+        <v>0.004092921489433309</v>
+      </c>
+      <c r="Q4">
+        <v>0.18162581969</v>
+      </c>
+      <c r="R4">
+        <v>1.63463237721</v>
+      </c>
+      <c r="S4">
+        <v>0.002728989062338798</v>
+      </c>
+      <c r="T4">
+        <v>0.002728989062338798</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="P2">
+      <c r="G5">
+        <v>1.031657</v>
+      </c>
+      <c r="H5">
+        <v>3.094971</v>
+      </c>
+      <c r="I5">
+        <v>0.3332417762265351</v>
+      </c>
+      <c r="J5">
+        <v>0.3332417762265351</v>
+      </c>
+      <c r="K5">
         <v>1</v>
       </c>
-      <c r="Q2">
-        <v>0.3080733603601555</v>
-      </c>
-      <c r="R2">
-        <v>0.3080733603601555</v>
-      </c>
-      <c r="S2">
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>21.087087</v>
+      </c>
+      <c r="N5">
+        <v>63.261261</v>
+      </c>
+      <c r="O5">
+        <v>0.9808818221599021</v>
+      </c>
+      <c r="P5">
+        <v>0.9808818221599021</v>
+      </c>
+      <c r="Q5">
+        <v>21.754640913159</v>
+      </c>
+      <c r="R5">
+        <v>195.791768218431</v>
+      </c>
+      <c r="S5">
+        <v>0.3268708006848861</v>
+      </c>
+      <c r="T5">
+        <v>0.3268708006848861</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="T2">
+      <c r="G6">
+        <v>1.031657</v>
+      </c>
+      <c r="H6">
+        <v>3.094971</v>
+      </c>
+      <c r="I6">
+        <v>0.3332417762265351</v>
+      </c>
+      <c r="J6">
+        <v>0.3332417762265351</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
         <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.3230143333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.9690430000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.01502525635066456</v>
+      </c>
+      <c r="P6">
+        <v>0.01502525635066456</v>
+      </c>
+      <c r="Q6">
+        <v>0.3332399980836667</v>
+      </c>
+      <c r="R6">
+        <v>2.999159982753</v>
+      </c>
+      <c r="S6">
+        <v>0.005007043114554483</v>
+      </c>
+      <c r="T6">
+        <v>0.005007043114554483</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.031657</v>
+      </c>
+      <c r="H7">
+        <v>3.094971</v>
+      </c>
+      <c r="I7">
+        <v>0.3332417762265351</v>
+      </c>
+      <c r="J7">
+        <v>0.3332417762265351</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.08799</v>
+      </c>
+      <c r="N7">
+        <v>0.26397</v>
+      </c>
+      <c r="O7">
+        <v>0.00409292148943331</v>
+      </c>
+      <c r="P7">
+        <v>0.004092921489433309</v>
+      </c>
+      <c r="Q7">
+        <v>0.09077549943</v>
+      </c>
+      <c r="R7">
+        <v>0.81697949487</v>
+      </c>
+      <c r="S7">
+        <v>0.001363932427094512</v>
+      </c>
+      <c r="T7">
+        <v>0.001363932427094511</v>
       </c>
     </row>
   </sheetData>
